--- a/414_first_test/test3.xlsx
+++ b/414_first_test/test3.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="test3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
